--- a/data/trans_camb/P15B_3_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P15B_3_R-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-26.09889098300579</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-5.022516366014774</v>
+        <v>-5.022516366014779</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-2.728723292283227</v>
@@ -655,7 +655,7 @@
         <v>3.316266648946469</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>5.957134273709448</v>
+        <v>5.957134273709449</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-9.118456710065223</v>
@@ -664,7 +664,7 @@
         <v>-9.044014349765364</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>1.905119086170651</v>
+        <v>1.905119086170645</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-44.89140860110978</v>
+        <v>-44.47956111567244</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-50.14306364033545</v>
+        <v>-51.09478604360211</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-30.54386283374827</v>
+        <v>-32.62300784518897</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-16.76240107338918</v>
+        <v>-17.55434767023363</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-10.69652649490219</v>
+        <v>-9.448782729685917</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-8.434546881147025</v>
+        <v>-8.303927956459447</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-21.74783839229163</v>
+        <v>-23.97509120729477</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-22.76944911888835</v>
+        <v>-23.17949090167845</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-14.49989584530114</v>
+        <v>-13.30672594614265</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.052168263929183</v>
+        <v>1.768634942808392</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-4.941115542251376</v>
+        <v>-5.004649561597968</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20.63249521865845</v>
+        <v>21.92722541646497</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.7850497431766</v>
+        <v>2.78746945888021</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.26831978569941</v>
+        <v>11.83705276763491</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>14.47487973308841</v>
+        <v>15.32867351911196</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.858285088614086</v>
+        <v>1.741706798714794</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.455144178252244</v>
+        <v>2.097344977827177</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>15.14240262338229</v>
+        <v>16.0655795473557</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.7007671399126437</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.1348568577595272</v>
+        <v>-0.1348568577595273</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.6592531026518421</v>
@@ -769,7 +769,7 @@
         <v>-0.4908438075379562</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.103396110389132</v>
+        <v>0.1033961103891318</v>
       </c>
     </row>
     <row r="8">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7814101829855509</v>
+        <v>-0.7858142839466781</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8846492704498796</v>
+        <v>-0.8940891208571156</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5852465174695756</v>
+        <v>-0.603298201951778</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.7472435046365214</v>
+        <v>-0.7835097465829443</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7908875423389456</v>
+        <v>-0.7863646023784685</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.4969228023814435</v>
+        <v>-0.4776709792290345</v>
       </c>
     </row>
     <row r="9">
@@ -809,25 +809,25 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2217749181542954</v>
+        <v>0.09923098620462603</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.1825086820459362</v>
+        <v>-0.1771647265761088</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.108304654673014</v>
+        <v>1.19780835761863</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>0.2829340140155724</v>
+        <v>0.2130518206818042</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2620349665650542</v>
+        <v>0.3218080546467228</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.624715870004946</v>
+        <v>1.628711552750758</v>
       </c>
     </row>
     <row r="10">
@@ -848,7 +848,7 @@
         <v>-15.13718473764404</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-5.318646960248441</v>
+        <v>-5.318646960248433</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-6.898745582777531</v>
@@ -866,7 +866,7 @@
         <v>-15.28591876045362</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-8.260939311267329</v>
+        <v>-8.260939311267324</v>
       </c>
     </row>
     <row r="11">
@@ -877,31 +877,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-17.61387490392722</v>
+        <v>-20.81776909326689</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-34.65885472257425</v>
+        <v>-32.6340078844945</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-24.10922273063998</v>
+        <v>-25.97387381815109</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-23.74969475012625</v>
+        <v>-22.8154765383504</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-31.86085729089296</v>
+        <v>-32.94455079678735</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-22.61366027339816</v>
+        <v>-23.89767276776172</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-15.44394512271043</v>
+        <v>-14.8579560816861</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-27.21138696162769</v>
+        <v>-29.18182148042748</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-21.82055442414991</v>
+        <v>-20.95226735849504</v>
       </c>
     </row>
     <row r="12">
@@ -912,31 +912,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>21.02865869615827</v>
+        <v>16.77356831597062</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.336493183275244</v>
+        <v>5.214407151202346</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15.02318316545985</v>
+        <v>13.59563512392783</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.455923016342602</v>
+        <v>6.52275115344437</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-3.200296842720029</v>
+        <v>-3.315197221975569</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.668389297882664</v>
+        <v>5.716046664244502</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>9.580394370588001</v>
+        <v>9.046227477951339</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-3.078584462946318</v>
+        <v>-4.519097650150507</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.260602516599863</v>
+        <v>3.871091264409535</v>
       </c>
     </row>
     <row r="13">
@@ -953,7 +953,7 @@
         <v>-0.4996231864882505</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.1755491122121934</v>
+        <v>-0.1755491122121931</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.4751083161487023</v>
@@ -971,7 +971,7 @@
         <v>-0.6677230550805964</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.3608562704798208</v>
+        <v>-0.3608562704798206</v>
       </c>
     </row>
     <row r="14">
@@ -982,29 +982,29 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4087228584505171</v>
+        <v>-0.4554094977108698</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.821315675045747</v>
+        <v>-0.7972976267055336</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5955109337023267</v>
+        <v>-0.6284562992349688</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.9051876371007371</v>
+        <v>-0.8954609601319538</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>-0.8916385418793212</v>
+        <v>-0.9153986893408623</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4838462419277008</v>
+        <v>-0.4637234542855634</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8842022318953224</v>
+        <v>-0.8881917850654808</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.6963710847543599</v>
+        <v>-0.6644641475708253</v>
       </c>
     </row>
     <row r="15">
@@ -1015,29 +1015,29 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.29322666836713</v>
+        <v>0.8895182527874099</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.285655440173034</v>
+        <v>0.3884340523925142</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.9295713326808561</v>
+        <v>0.766301242201507</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.675585298616707</v>
+        <v>2.749752123169852</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>2.241780503721193</v>
+        <v>1.834659779118436</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7412746422976231</v>
+        <v>0.7094693173649222</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1297648695695859</v>
+        <v>-0.1885820025267696</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.2465707951360518</v>
+        <v>0.3419799199960919</v>
       </c>
     </row>
     <row r="16">
@@ -1087,31 +1087,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-43.66770403364847</v>
+        <v>-44.87824985675097</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-44.8604024580972</v>
+        <v>-42.42655120462197</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-47.78637937511976</v>
+        <v>-45.83739163843475</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-17.8925740636144</v>
+        <v>-18.22535641973781</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-11.97739792462721</v>
+        <v>-15.13737729354036</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-13.59709143990196</v>
+        <v>-15.09303591630773</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-33.51615008826494</v>
+        <v>-32.60965761879097</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-31.74844748283856</v>
+        <v>-31.1449746921101</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-31.09303174144281</v>
+        <v>-30.40167045661437</v>
       </c>
     </row>
     <row r="18">
@@ -1122,31 +1122,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-4.448814687665992</v>
+        <v>-8.236843190482473</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-3.393728670873438</v>
+        <v>-3.720247928695723</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-10.72126696463041</v>
+        <v>-9.868624424382062</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.278533189477913</v>
+        <v>6.713182214292912</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>12.29201545638239</v>
+        <v>10.46434003362343</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>12.35425436736409</v>
+        <v>12.03265680340827</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-6.98966260949868</v>
+        <v>-6.016157883228471</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-3.459261148376801</v>
+        <v>-4.629336215519698</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-5.179053683769123</v>
+        <v>-4.996157742286304</v>
       </c>
     </row>
     <row r="19">
@@ -1163,7 +1163,7 @@
         <v>-0.5425035521598925</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.6241331739031954</v>
+        <v>-0.6241331739031953</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.3337154122865064</v>
@@ -1181,7 +1181,7 @@
         <v>-0.5533726842634086</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.5619365595350254</v>
+        <v>-0.5619365595350253</v>
       </c>
     </row>
     <row r="20">
@@ -1192,25 +1192,27 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7541703621036601</v>
+        <v>-0.7766828924177904</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7893880838365602</v>
+        <v>-0.7899546568809879</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.8143869807742313</v>
+        <v>-0.8054338420118773</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
-      <c r="H20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="n">
+        <v>-0.7998275324856007</v>
+      </c>
       <c r="I20" s="6" t="n">
-        <v>-0.794591090621634</v>
+        <v>-0.7803788320777842</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.7774062446197839</v>
+        <v>-0.7691095257263058</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.764074966654232</v>
+        <v>-0.7479102117105078</v>
       </c>
     </row>
     <row r="21">
@@ -1221,25 +1223,25 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.1271185574375319</v>
+        <v>-0.2348969027295127</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.07969120265716451</v>
+        <v>-0.0955931653542766</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.2977107670877405</v>
+        <v>-0.2630193035230352</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>-0.277347572558846</v>
+        <v>-0.2659541685810258</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.1314102603125454</v>
+        <v>-0.1670511688588265</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.1938740186957271</v>
+        <v>-0.1566462768914156</v>
       </c>
     </row>
     <row r="22">
@@ -1289,31 +1291,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-12.53143819431467</v>
+        <v>-12.72048550863459</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-9.496781881264923</v>
+        <v>-9.606851984166028</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.364078357563739</v>
+        <v>-3.543695607550139</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-22.02490064675934</v>
+        <v>-24.78433450358614</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-12.97890927988436</v>
+        <v>-13.22047694422624</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-35.53055139274704</v>
+        <v>-35.94654587694951</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-11.12112680656009</v>
+        <v>-11.81606847582805</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.155972180127041</v>
+        <v>-3.306696889314183</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-8.760736482382844</v>
+        <v>-8.267913307485802</v>
       </c>
     </row>
     <row r="24">
@@ -1324,31 +1326,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>15.30865602174242</v>
+        <v>16.02083005163132</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>24.197238319231</v>
+        <v>23.93120561856331</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>32.09144228538458</v>
+        <v>32.54185961058626</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>20.43803341673711</v>
+        <v>18.92854782839098</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>36.88035281282856</v>
+        <v>37.59443923879962</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.751481962968449</v>
+        <v>2.947669237677822</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>12.67091900457594</v>
+        <v>12.61435740301174</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>25.21748724820211</v>
+        <v>25.05714506598267</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>15.64019476014234</v>
+        <v>15.12265825405627</v>
       </c>
     </row>
     <row r="25">
@@ -1396,19 +1398,19 @@
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>-0.6720276865966488</v>
+        <v>-0.6352846329841176</v>
       </c>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="n">
-        <v>-0.7924639492347303</v>
+        <v>-0.7979024973327566</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4048890605822174</v>
+        <v>-0.3875491981379958</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.7527727407485727</v>
+        <v>-0.7405517504257325</v>
       </c>
     </row>
     <row r="27">
@@ -1424,13 +1426,11 @@
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
-      <c r="I27" s="6" t="n">
-        <v>4.926985476943932</v>
-      </c>
-      <c r="J27" s="6" t="n">
-        <v>7.715434750487755</v>
-      </c>
-      <c r="K27" s="6" t="inlineStr"/>
+      <c r="I27" s="6" t="inlineStr"/>
+      <c r="J27" s="6" t="inlineStr"/>
+      <c r="K27" s="6" t="n">
+        <v>5.51104385363533</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1450,7 +1450,7 @@
         <v>-17.32100081837796</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-9.823873591945789</v>
+        <v>-9.823873591945794</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-3.812790967510873</v>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-20.6445487400649</v>
+        <v>-20.32135195306642</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-27.60681179100668</v>
+        <v>-27.76658900437801</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-21.0494514822189</v>
+        <v>-21.31122666508372</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-12.36725312887216</v>
+        <v>-11.64141004388428</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-9.787755550728869</v>
+        <v>-10.49095717398392</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-9.85573266547979</v>
+        <v>-10.2363426173592</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-15.13229137947919</v>
+        <v>-15.608116062051</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-18.3479855980567</v>
+        <v>-17.7040189391956</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-14.52134804630355</v>
+        <v>-14.00382827698575</v>
       </c>
     </row>
     <row r="30">
@@ -1514,31 +1514,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.9740037587142083</v>
+        <v>-0.4389208589641181</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-7.962230560114825</v>
+        <v>-7.336135555451478</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2708633646639967</v>
+        <v>0.7439550826581431</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.060333225021648</v>
+        <v>2.437047063300593</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.754207889268021</v>
+        <v>4.473505978707099</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.461792531792183</v>
+        <v>3.721197805908634</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-2.292385548862456</v>
+        <v>-2.812760931055762</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-4.931746569427009</v>
+        <v>-4.772554453928164</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-0.8262498979782411</v>
+        <v>-0.6921583319060561</v>
       </c>
     </row>
     <row r="31">
@@ -1555,7 +1555,7 @@
         <v>-0.5356588553191179</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.3038072071146163</v>
+        <v>-0.3038072071146165</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.4191392405607308</v>
@@ -1584,31 +1584,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5365359654113823</v>
+        <v>-0.5181709037415533</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.6940742901488499</v>
+        <v>-0.7068939455760876</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5403132174342546</v>
+        <v>-0.5378251648428291</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.7887857014834472</v>
+        <v>-0.7849579747869915</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.6574691017144855</v>
+        <v>-0.6948273628152158</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.6515425727382681</v>
+        <v>-0.6773362964150031</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.5684581053608104</v>
+        <v>-0.5572293686271818</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.6634661582585192</v>
+        <v>-0.6565377701155615</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.5380074261112143</v>
+        <v>-0.5319662528815128</v>
       </c>
     </row>
     <row r="33">
@@ -1619,31 +1619,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.0421729792369126</v>
+        <v>-0.009025817130117681</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.2921928997845245</v>
+        <v>-0.2680040652944741</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.022579484764743</v>
+        <v>0.06027250668972356</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.4971493060601979</v>
+        <v>0.6711529473519741</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.2553170486704</v>
+        <v>1.027547639232366</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8119000587758443</v>
+        <v>0.7658652086830425</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.1180795665944146</v>
+        <v>-0.1461641923599062</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.248970429781116</v>
+        <v>-0.2658965018066494</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.04432897420482857</v>
+        <v>-0.03345294275173226</v>
       </c>
     </row>
     <row r="34">
